--- a/AttendanceManagement/wwwroot/ExcelTemplates/Employee Import.xlsx
+++ b/AttendanceManagement/wwwroot/ExcelTemplates/Employee Import.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29103"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{178AB29D-B87E-4CBF-8B50-91ECF0994516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C54649E-1615-44A6-B0EA-20F015296A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>StaffId</t>
   </si>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t>WorkingDayPattern</t>
-  </si>
-  <si>
-    <t>Tenure</t>
   </si>
   <si>
     <t>UanNumber</t>
@@ -620,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BT2"/>
+  <dimension ref="A1:BS2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AN1" sqref="AN1:BT1"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AI1" sqref="AI1:BS1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -677,7 +674,7 @@
     <col min="78" max="78" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72">
+    <row r="1" spans="1:71">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -891,11 +888,8 @@
       <c r="BS1" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" t="s">
-        <v>71</v>
-      </c>
     </row>
-    <row r="2" spans="1:72">
+    <row r="2" spans="1:71">
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="P2" s="1"/>

--- a/AttendanceManagement/wwwroot/ExcelTemplates/Employee Import.xlsx
+++ b/AttendanceManagement/wwwroot/ExcelTemplates/Employee Import.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29113"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C54649E-1615-44A6-B0EA-20F015296A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B43CC120-EF11-4070-997F-7E8858650528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -162,10 +162,10 @@
     <t>LeaveGroup</t>
   </si>
   <si>
-    <t>CompanyMaster</t>
-  </si>
-  <si>
-    <t>LocationMaster</t>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Location</t>
   </si>
   <si>
     <t>HolidayCalendar</t>
@@ -619,7 +619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BS2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
       <selection activeCell="AI1" sqref="AI1:BS1"/>
     </sheetView>
   </sheetViews>
